--- a/Utils/excel/brijesh.xlsx
+++ b/Utils/excel/brijesh.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Documents/TradeMan/Utils/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1DD975-A889-5047-8FBD-2061DE75AD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7475D039-FECF-2149-ABAD-303224259312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35600" yWindow="820" windowWidth="34400" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MPWizard" sheetId="1" r:id="rId1"/>
-    <sheet name="AmiPy" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overnight_Options" sheetId="4" r:id="rId2"/>
+    <sheet name="MPWizard" sheetId="2" r:id="rId3"/>
+    <sheet name="AmiPy" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
+  <si>
+    <t>Tr.No</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Entry Date</t>
+  </si>
+  <si>
+    <t>Exit Date</t>
+  </si>
+  <si>
+    <t>Entry Price</t>
+  </si>
+  <si>
+    <t>Exit Price</t>
+  </si>
+  <si>
+    <t>Trade Points</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>PnL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margin Used </t>
+  </si>
+  <si>
+    <t>SUNFLAG</t>
+  </si>
+  <si>
+    <t>HPL</t>
+  </si>
+  <si>
+    <t>Unionbank</t>
+  </si>
+  <si>
+    <t>BBL</t>
+  </si>
   <si>
     <t>Strategy</t>
   </si>
@@ -54,19 +98,10 @@
     <t>Exit Time</t>
   </si>
   <si>
-    <t>Entry Price</t>
-  </si>
-  <si>
-    <t>Exit Price</t>
-  </si>
-  <si>
     <t>Trade points</t>
   </si>
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>PnL</t>
+    <t>Tax</t>
   </si>
   <si>
     <t>MPWizard</t>
@@ -93,22 +128,67 @@
     <t>NIFTY</t>
   </si>
   <si>
-    <t>19600</t>
-  </si>
-  <si>
     <t>10:25</t>
   </si>
   <si>
     <t>10:59</t>
   </si>
   <si>
-    <t>76.57</t>
+    <t>10:21</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>FINNIFT</t>
+  </si>
+  <si>
+    <t>10:23</t>
+  </si>
+  <si>
+    <t>10:18</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>13:48</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>13:08</t>
+  </si>
+  <si>
+    <t>13:18</t>
+  </si>
+  <si>
+    <t>13:37</t>
+  </si>
+  <si>
+    <t>14:05</t>
+  </si>
+  <si>
+    <t>14:04</t>
+  </si>
+  <si>
+    <t>10:17</t>
+  </si>
+  <si>
+    <t>15:14</t>
   </si>
   <si>
     <t>Trade Type</t>
   </si>
   <si>
-    <t>Hedge Price</t>
+    <t>Hedge Entry</t>
+  </si>
+  <si>
+    <t>Hedge Exit</t>
   </si>
   <si>
     <t>Nifty Straddle</t>
@@ -124,15 +204,59 @@
   </si>
   <si>
     <t>09:25</t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>09:21</t>
+  </si>
+  <si>
+    <t>14:26</t>
+  </si>
+  <si>
+    <t>14:57</t>
+  </si>
+  <si>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>Trade_Type</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Entry.1</t>
+  </si>
+  <si>
+    <t>Exit.1</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trade points </t>
+  </si>
+  <si>
+    <t>BEARISH</t>
+  </si>
+  <si>
+    <t>BULLISH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -190,7 +314,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,10 +617,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45146</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45152</v>
+      </c>
+      <c r="E2">
+        <v>191.1</v>
+      </c>
+      <c r="F2">
+        <v>202.45</v>
+      </c>
+      <c r="G2">
+        <v>11.35</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="J2">
+        <v>11466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45147</v>
+      </c>
+      <c r="E3">
+        <v>177.9</v>
+      </c>
+      <c r="H3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <v>21348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45148</v>
+      </c>
+      <c r="E4">
+        <v>77.8</v>
+      </c>
+      <c r="H4">
+        <v>260</v>
+      </c>
+      <c r="J4">
+        <v>20228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45149</v>
+      </c>
+      <c r="E5">
+        <v>3320.36</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>33203.599999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ED0D9F-712B-7144-8502-ADA900E119AD}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>45152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2">
+        <v>19474.75</v>
+      </c>
+      <c r="D2">
+        <v>19375.5</v>
+      </c>
+      <c r="E2">
+        <v>1.25</v>
+      </c>
+      <c r="F2">
+        <v>1.2</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <f>(C2-D2)+(F2-E2)</f>
+        <v>99.2</v>
+      </c>
+      <c r="I2">
+        <f>H2*G2</f>
+        <v>9920</v>
+      </c>
+      <c r="J2">
+        <v>568.61099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>45154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>19483.900000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.75</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <f>H3*G3</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -504,47 +870,50 @@
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>44800</v>
@@ -553,10 +922,10 @@
         <v>45142</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <v>309.97000000000003</v>
@@ -574,12 +943,12 @@
         <v>-6373.9500000000089</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>19950</v>
@@ -588,10 +957,10 @@
         <v>45142</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G3">
         <v>92</v>
@@ -609,41 +978,495 @@
         <v>-6313.9999999999973</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>19600</v>
+      </c>
+      <c r="D4" s="2">
         <v>45145</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="G4">
+        <v>76.569999999999993</v>
       </c>
       <c r="H4">
         <v>59.5</v>
       </c>
       <c r="I4">
-        <f>H4-G4</f>
-        <v>-17.069999999999993</v>
+        <v>-17.06999999999999</v>
       </c>
       <c r="J4">
         <v>350</v>
       </c>
       <c r="K4">
-        <f>J4*I4</f>
         <v>-5974.4999999999973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>45000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5">
+        <v>187.68</v>
+      </c>
+      <c r="H5">
+        <v>157.05000000000001</v>
+      </c>
+      <c r="I5">
+        <v>-30.63</v>
+      </c>
+      <c r="J5">
+        <v>90</v>
+      </c>
+      <c r="K5">
+        <v>-2756.7</v>
+      </c>
+      <c r="L5">
+        <v>53.014131210000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>20050</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>59.15</v>
+      </c>
+      <c r="H6">
+        <v>39</v>
+      </c>
+      <c r="I6">
+        <v>-20.149999999999999</v>
+      </c>
+      <c r="J6">
+        <v>280</v>
+      </c>
+      <c r="K6">
+        <v>-5642</v>
+      </c>
+      <c r="L6">
+        <v>49.008285600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>19500</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>49.55</v>
+      </c>
+      <c r="H7">
+        <v>153</v>
+      </c>
+      <c r="I7">
+        <v>103.45</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <v>20690</v>
+      </c>
+      <c r="L7">
+        <v>99.39560800000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>44600</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>209.3</v>
+      </c>
+      <c r="H8">
+        <v>295.5</v>
+      </c>
+      <c r="I8">
+        <v>86.199999999999989</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
+      </c>
+      <c r="K8">
+        <v>5171.9999999999991</v>
+      </c>
+      <c r="L8">
+        <v>63.959771400000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>20050</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45148</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>106.17</v>
+      </c>
+      <c r="H9">
+        <v>73.8</v>
+      </c>
+      <c r="I9">
+        <v>-32.369999999999997</v>
+      </c>
+      <c r="J9">
+        <v>240</v>
+      </c>
+      <c r="K9">
+        <v>-7768.8000000000011</v>
+      </c>
+      <c r="L9">
+        <v>57.472340160000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>19550</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>37.6</v>
+      </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>-24.6</v>
+      </c>
+      <c r="J10">
+        <v>250</v>
+      </c>
+      <c r="K10">
+        <v>-6150</v>
+      </c>
+      <c r="L10">
+        <v>39.450084999999987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>19450</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45149</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>100.85</v>
+      </c>
+      <c r="H11">
+        <v>102.99</v>
+      </c>
+      <c r="I11">
+        <v>2.140000000000001</v>
+      </c>
+      <c r="J11">
+        <v>400</v>
+      </c>
+      <c r="K11">
+        <v>856.00000000000023</v>
+      </c>
+      <c r="L11">
+        <v>87.80763128000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>44400</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45149</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>336.6</v>
+      </c>
+      <c r="H12">
+        <v>298.27999999999997</v>
+      </c>
+      <c r="I12">
+        <v>-38.32000000000005</v>
+      </c>
+      <c r="J12">
+        <v>75</v>
+      </c>
+      <c r="K12">
+        <v>-2874.0000000000041</v>
+      </c>
+      <c r="L12">
+        <v>63.278292779999987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>19400</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45152</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="H13">
+        <v>50.3</v>
+      </c>
+      <c r="I13">
+        <v>-17.05</v>
+      </c>
+      <c r="J13">
+        <v>350</v>
+      </c>
+      <c r="K13">
+        <v>-5967.4999999999991</v>
+      </c>
+      <c r="L13">
+        <v>57.3389989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>44100</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45152</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>185.36</v>
+      </c>
+      <c r="H14">
+        <v>191.99</v>
+      </c>
+      <c r="I14">
+        <v>6.6299999999999946</v>
+      </c>
+      <c r="J14">
+        <v>135</v>
+      </c>
+      <c r="K14">
+        <v>895.04999999999939</v>
+      </c>
+      <c r="L14">
+        <v>68.818115757000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>19400</v>
+      </c>
+      <c r="D15" s="2">
+        <v>45154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15">
+        <v>50.05</v>
+      </c>
+      <c r="H15">
+        <v>81.45</v>
+      </c>
+      <c r="I15">
+        <v>31.400000000000009</v>
+      </c>
+      <c r="J15">
+        <v>250</v>
+      </c>
+      <c r="K15">
+        <v>7850.0000000000018</v>
+      </c>
+      <c r="L15">
+        <v>70.587840249999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>43900</v>
+      </c>
+      <c r="D16" s="2">
+        <v>45154</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16">
+        <v>144.4</v>
+      </c>
+      <c r="H16">
+        <v>141.19999999999999</v>
+      </c>
+      <c r="I16">
+        <v>-3.2000000000000171</v>
+      </c>
+      <c r="J16">
+        <v>75</v>
+      </c>
+      <c r="K16">
+        <v>-240.00000000000131</v>
+      </c>
+      <c r="L16">
+        <v>48.597046200000001</v>
       </c>
     </row>
   </sheetData>
@@ -651,66 +1474,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:O18"/>
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -719,10 +1551,10 @@
         <v>45142</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>210</v>
@@ -730,40 +1562,37 @@
       <c r="I2">
         <v>192.15</v>
       </c>
-      <c r="J2">
-        <v>2.8000000000000012</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
         <v>-20.65</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>50</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>-1032.5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>19600</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>45145</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>171.25</v>
@@ -771,19 +1600,296 @@
       <c r="I3">
         <v>148.4</v>
       </c>
-      <c r="J3">
-        <v>-3.05</v>
-      </c>
-      <c r="K3">
-        <f>(H3-I3)+J3</f>
-        <v>19.799999999999994</v>
-      </c>
       <c r="L3">
+        <v>19.79999999999999</v>
+      </c>
+      <c r="M3">
         <v>50</v>
       </c>
-      <c r="M3">
-        <f>K3*L3</f>
+      <c r="N3">
         <v>989.99999999999966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>19600</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4">
+        <v>154.85</v>
+      </c>
+      <c r="I4">
+        <v>132.5</v>
+      </c>
+      <c r="J4">
+        <v>5.3</v>
+      </c>
+      <c r="K4">
+        <v>3.5</v>
+      </c>
+      <c r="L4">
+        <v>20.54999999999999</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>1027.5</v>
+      </c>
+      <c r="O4">
+        <v>150.07402400000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>19500</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45147</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="I5">
+        <v>149.6</v>
+      </c>
+      <c r="J5">
+        <v>3.15</v>
+      </c>
+      <c r="K5">
+        <v>2.4</v>
+      </c>
+      <c r="L5">
+        <v>-21.549999999999979</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>-1077.4999999999991</v>
+      </c>
+      <c r="O5">
+        <v>152.370968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>19600</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>106.95</v>
+      </c>
+      <c r="I6">
+        <v>61.900000000000013</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>0.25</v>
+      </c>
+      <c r="L6">
+        <v>43.299999999999983</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="N6">
+        <v>2164.9999999999991</v>
+      </c>
+      <c r="O6">
+        <v>145.47250435000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>19500</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>191.05</v>
+      </c>
+      <c r="I7">
+        <v>169.05</v>
+      </c>
+      <c r="J7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K7">
+        <v>6.85</v>
+      </c>
+      <c r="L7">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="M7">
+        <v>50</v>
+      </c>
+      <c r="N7">
+        <v>932.50000000000011</v>
+      </c>
+      <c r="O7">
+        <v>152.56015310000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>19300</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45152</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8">
+        <v>173.5</v>
+      </c>
+      <c r="I8">
+        <v>195.15</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="L8">
+        <v>-26.000000000000011</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <v>-1300</v>
+      </c>
+      <c r="O8">
+        <v>155.4024632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>19300</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45154</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>122.55</v>
+      </c>
+      <c r="I9">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="J9">
+        <v>2.4</v>
+      </c>
+      <c r="K9">
+        <v>2.25</v>
+      </c>
+      <c r="L9">
+        <v>-30.29999999999999</v>
+      </c>
+      <c r="M9">
+        <v>50</v>
+      </c>
+      <c r="N9">
+        <v>-1515</v>
+      </c>
+      <c r="O9">
+        <v>153.13915455</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/excel/brijesh.xlsx
+++ b/Utils/excel/brijesh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Documents/TradeMan/Utils/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2812055F-9A96-C641-A8FB-1187124265A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5461E5CC-AA5C-C64A-8EAD-D23FF9FEBA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>Tr.No</t>
   </si>
@@ -199,31 +199,43 @@
     <t>10:31</t>
   </si>
   <si>
-    <t>19650</t>
-  </si>
-  <si>
     <t>12:46</t>
   </si>
   <si>
-    <t>26.60</t>
-  </si>
-  <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>44000</t>
-  </si>
-  <si>
     <t>12:19</t>
   </si>
   <si>
     <t>15:00</t>
   </si>
   <si>
-    <t>153.32</t>
-  </si>
-  <si>
-    <t>139.93</t>
+    <t>11:07</t>
+  </si>
+  <si>
+    <t>15:05</t>
+  </si>
+  <si>
+    <t>11:25</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>44100</t>
+  </si>
+  <si>
+    <t>144.45</t>
+  </si>
+  <si>
+    <t>383.90</t>
+  </si>
+  <si>
+    <t>19600</t>
+  </si>
+  <si>
+    <t>114.21</t>
+  </si>
+  <si>
+    <t>178.00</t>
   </si>
   <si>
     <t>Trade Type</t>
@@ -263,6 +275,9 @@
   </si>
   <si>
     <t>11:40</t>
+  </si>
+  <si>
+    <t>11:36</t>
   </si>
   <si>
     <t>Trade_Type</t>
@@ -655,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -790,14 +805,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1633,23 +1647,23 @@
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23">
+        <v>19650</v>
+      </c>
+      <c r="D23" s="2">
         <v>45160</v>
       </c>
       <c r="E23" t="s">
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="G23">
+        <v>26.6</v>
+      </c>
+      <c r="H23">
+        <v>6.65</v>
       </c>
       <c r="I23">
         <v>-19.95</v>
@@ -1671,23 +1685,23 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24">
+        <v>44000</v>
+      </c>
+      <c r="D24" s="2">
         <v>45160</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>153.32</v>
+      </c>
+      <c r="H24">
+        <v>139.93</v>
       </c>
       <c r="I24">
         <v>-13.38999999999999</v>
@@ -1700,6 +1714,82 @@
       </c>
       <c r="L24">
         <v>53.709686576999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45161</v>
+      </c>
+      <c r="E25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25">
+        <v>239.45</v>
+      </c>
+      <c r="J25">
+        <v>90</v>
+      </c>
+      <c r="K25">
+        <v>21550.5</v>
+      </c>
+      <c r="L25">
+        <v>105.39489018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45161</v>
+      </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26">
+        <v>63.790000000000013</v>
+      </c>
+      <c r="J26">
+        <v>320</v>
+      </c>
+      <c r="K26">
+        <v>20412.8</v>
+      </c>
+      <c r="L26">
+        <v>131.89841279999999</v>
       </c>
     </row>
   </sheetData>
@@ -1709,14 +1799,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1726,7 +1815,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -1747,10 +1836,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>20</v>
@@ -1767,13 +1856,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -1782,10 +1871,10 @@
         <v>45142</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>210</v>
@@ -1805,13 +1894,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>19600</v>
@@ -1820,10 +1909,10 @@
         <v>45145</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>171.25</v>
@@ -1843,13 +1932,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>19600</v>
@@ -1858,10 +1947,10 @@
         <v>45146</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>154.85</v>
@@ -1890,13 +1979,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>19500</v>
@@ -1905,10 +1994,10 @@
         <v>45147</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H5">
         <v>128.80000000000001</v>
@@ -1937,13 +2026,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6">
         <v>19600</v>
@@ -1952,10 +2041,10 @@
         <v>45148</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>106.95</v>
@@ -1984,13 +2073,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D7">
         <v>19500</v>
@@ -1999,10 +2088,10 @@
         <v>45149</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H7">
         <v>191.05</v>
@@ -2031,13 +2120,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>19300</v>
@@ -2046,10 +2135,10 @@
         <v>45152</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H8">
         <v>173.5</v>
@@ -2078,13 +2167,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>19300</v>
@@ -2093,10 +2182,10 @@
         <v>45154</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <v>122.55</v>
@@ -2125,13 +2214,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>19400</v>
@@ -2140,10 +2229,10 @@
         <v>45155</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H10">
         <v>92.3</v>
@@ -2172,13 +2261,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>19300</v>
@@ -2187,10 +2276,10 @@
         <v>45156</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H11">
         <v>189.35</v>
@@ -2219,13 +2308,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>19300</v>
@@ -2234,10 +2323,10 @@
         <v>45159</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H12">
         <v>165.15</v>
@@ -2266,25 +2355,25 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>19400</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>45160</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H13">
         <v>130.94999999999999</v>
@@ -2309,6 +2398,53 @@
       </c>
       <c r="O13">
         <v>149.02100189999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14">
+        <v>19400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>45161</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14">
+        <v>95.05</v>
+      </c>
+      <c r="I14">
+        <v>96.65</v>
+      </c>
+      <c r="J14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L14">
+        <v>-1.600000000000009</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>-160.00000000000091</v>
+      </c>
+      <c r="O14">
+        <v>154.09979659999999</v>
       </c>
     </row>
   </sheetData>
@@ -2318,33 +2454,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -2355,7 +2493,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -2380,6 +2518,35 @@
       </c>
       <c r="I2">
         <v>570.02985224000008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>19382</v>
+      </c>
+      <c r="D3">
+        <v>19389.849999999999</v>
+      </c>
+      <c r="E3">
+        <v>18.2</v>
+      </c>
+      <c r="F3">
+        <v>12.3</v>
+      </c>
+      <c r="G3">
+        <v>1.949999999998546</v>
+      </c>
+      <c r="H3">
+        <v>194.99999999985459</v>
+      </c>
+      <c r="I3">
+        <v>570.20677032999993</v>
       </c>
     </row>
   </sheetData>

--- a/Utils/excel/brijesh.xlsx
+++ b/Utils/excel/brijesh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Documents/TradeMan/Utils/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5461E5CC-AA5C-C64A-8EAD-D23FF9FEBA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C011CBE4-4CBD-1340-A01E-F283142E0F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="26600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="115">
   <si>
     <t>Tr.No</t>
   </si>
@@ -220,22 +220,82 @@
     <t>14:20</t>
   </si>
   <si>
-    <t>44100</t>
-  </si>
-  <si>
-    <t>144.45</t>
-  </si>
-  <si>
-    <t>383.90</t>
+    <t>13:19</t>
+  </si>
+  <si>
+    <t>12:05</t>
+  </si>
+  <si>
+    <t>14:58</t>
+  </si>
+  <si>
+    <t>10:26</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>11:46</t>
+  </si>
+  <si>
+    <t>14:24</t>
+  </si>
+  <si>
+    <t>11:26</t>
+  </si>
+  <si>
+    <t>14:15</t>
+  </si>
+  <si>
+    <t>15:06</t>
+  </si>
+  <si>
+    <t>10:20</t>
+  </si>
+  <si>
+    <t>13:38</t>
+  </si>
+  <si>
+    <t>14:32</t>
+  </si>
+  <si>
+    <t>10:33</t>
+  </si>
+  <si>
+    <t>10:38</t>
+  </si>
+  <si>
+    <t>14:13</t>
+  </si>
+  <si>
+    <t>19350</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>10:44</t>
+  </si>
+  <si>
+    <t>92.82</t>
+  </si>
+  <si>
+    <t>78.80</t>
   </si>
   <si>
     <t>19600</t>
   </si>
   <si>
-    <t>114.21</t>
-  </si>
-  <si>
-    <t>178.00</t>
+    <t>10:41</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>86.01</t>
+  </si>
+  <si>
+    <t>72.00</t>
   </si>
   <si>
     <t>Trade Type</t>
@@ -280,6 +340,12 @@
     <t>11:36</t>
   </si>
   <si>
+    <t>09:41</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
     <t>Trade_Type</t>
   </si>
   <si>
@@ -299,6 +365,9 @@
   </si>
   <si>
     <t>BULLISH</t>
+  </si>
+  <si>
+    <t>BEARISH</t>
   </si>
 </sst>
 </file>
@@ -768,11 +837,23 @@
       <c r="C4" s="2">
         <v>45148</v>
       </c>
+      <c r="D4" s="2">
+        <v>45167</v>
+      </c>
       <c r="E4">
         <v>77.8</v>
       </c>
+      <c r="F4">
+        <v>86.35</v>
+      </c>
+      <c r="G4">
+        <v>8.5499999999999972</v>
+      </c>
       <c r="H4">
         <v>260</v>
+      </c>
+      <c r="I4">
+        <v>2222.9999999999991</v>
       </c>
       <c r="J4">
         <v>20228</v>
@@ -805,10 +886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1723,10 +1804,10 @@
       <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25">
+        <v>44100</v>
+      </c>
+      <c r="D25" s="2">
         <v>45161</v>
       </c>
       <c r="E25" t="s">
@@ -1735,11 +1816,11 @@
       <c r="F25" t="s">
         <v>62</v>
       </c>
-      <c r="G25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" t="s">
-        <v>67</v>
+      <c r="G25">
+        <v>144.44999999999999</v>
+      </c>
+      <c r="H25">
+        <v>383.9</v>
       </c>
       <c r="I25">
         <v>239.45</v>
@@ -1761,10 +1842,10 @@
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26">
+        <v>19600</v>
+      </c>
+      <c r="D26" s="2">
         <v>45161</v>
       </c>
       <c r="E26" t="s">
@@ -1773,11 +1854,11 @@
       <c r="F26" t="s">
         <v>64</v>
       </c>
-      <c r="G26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" t="s">
-        <v>70</v>
+      <c r="G26">
+        <v>114.21</v>
+      </c>
+      <c r="H26">
+        <v>178</v>
       </c>
       <c r="I26">
         <v>63.790000000000013</v>
@@ -1790,6 +1871,538 @@
       </c>
       <c r="L26">
         <v>131.89841279999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>19500</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45162</v>
+      </c>
+      <c r="E27" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27">
+        <v>26.8</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>-22.8</v>
+      </c>
+      <c r="J27">
+        <v>300</v>
+      </c>
+      <c r="K27">
+        <v>-6840</v>
+      </c>
+      <c r="L27">
+        <v>36.895415999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>44600</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45162</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28">
+        <v>66.349999999999994</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>-64.349999999999994</v>
+      </c>
+      <c r="J28">
+        <v>90</v>
+      </c>
+      <c r="K28">
+        <v>-5791.4999999999991</v>
+      </c>
+      <c r="L28">
+        <v>35.624312400000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>19250</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45163</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29">
+        <v>101.16</v>
+      </c>
+      <c r="H29">
+        <v>114</v>
+      </c>
+      <c r="I29">
+        <v>12.84</v>
+      </c>
+      <c r="J29">
+        <v>550</v>
+      </c>
+      <c r="K29">
+        <v>7062.0000000000018</v>
+      </c>
+      <c r="L29">
+        <v>122.36298600000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>44100</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <v>292.49</v>
+      </c>
+      <c r="H30">
+        <v>253.08</v>
+      </c>
+      <c r="I30">
+        <v>-39.409999999999997</v>
+      </c>
+      <c r="J30">
+        <v>210</v>
+      </c>
+      <c r="K30">
+        <v>-8276.0999999999985</v>
+      </c>
+      <c r="L30">
+        <v>101.630479224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>19300</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45166</v>
+      </c>
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31">
+        <v>89.75</v>
+      </c>
+      <c r="H31">
+        <v>81</v>
+      </c>
+      <c r="I31">
+        <v>-8.75</v>
+      </c>
+      <c r="J31">
+        <v>450</v>
+      </c>
+      <c r="K31">
+        <v>-3937.5</v>
+      </c>
+      <c r="L31">
+        <v>80.823261000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>44300</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45166</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32">
+        <v>293.17</v>
+      </c>
+      <c r="H32">
+        <v>345.95</v>
+      </c>
+      <c r="I32">
+        <v>52.779999999999973</v>
+      </c>
+      <c r="J32">
+        <v>165</v>
+      </c>
+      <c r="K32">
+        <v>8708.6999999999953</v>
+      </c>
+      <c r="L32">
+        <v>117.420010215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>44500</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45167</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33">
+        <v>188.54</v>
+      </c>
+      <c r="H33">
+        <v>152.75</v>
+      </c>
+      <c r="I33">
+        <v>-35.789999999999992</v>
+      </c>
+      <c r="J33">
+        <v>120</v>
+      </c>
+      <c r="K33">
+        <v>-4294.7999999999993</v>
+      </c>
+      <c r="L33">
+        <v>58.242479399999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>19800</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34">
+        <v>35.9</v>
+      </c>
+      <c r="H34">
+        <v>15</v>
+      </c>
+      <c r="I34">
+        <v>-20.9</v>
+      </c>
+      <c r="J34">
+        <v>360</v>
+      </c>
+      <c r="K34">
+        <v>-7523.9999999999991</v>
+      </c>
+      <c r="L34">
+        <v>42.129371999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>19450</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45168</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35">
+        <v>37.9</v>
+      </c>
+      <c r="H35">
+        <v>14.9</v>
+      </c>
+      <c r="I35">
+        <v>-23</v>
+      </c>
+      <c r="J35">
+        <v>300</v>
+      </c>
+      <c r="K35">
+        <v>-6900</v>
+      </c>
+      <c r="L35">
+        <v>40.970424599999987</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>44600</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36">
+        <v>118.28</v>
+      </c>
+      <c r="H36">
+        <v>312.64999999999998</v>
+      </c>
+      <c r="I36">
+        <v>194.37</v>
+      </c>
+      <c r="J36">
+        <v>90</v>
+      </c>
+      <c r="K36">
+        <v>17493.3</v>
+      </c>
+      <c r="L36">
+        <v>92.33226092999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>44100</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37">
+        <v>77.55</v>
+      </c>
+      <c r="H37">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>-66.55</v>
+      </c>
+      <c r="J37">
+        <v>90</v>
+      </c>
+      <c r="K37">
+        <v>-5989.5</v>
+      </c>
+      <c r="L37">
+        <v>36.633718199999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>19300</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38">
+        <v>31.5</v>
+      </c>
+      <c r="H38">
+        <v>7.5</v>
+      </c>
+      <c r="I38">
+        <v>-24</v>
+      </c>
+      <c r="J38">
+        <v>300</v>
+      </c>
+      <c r="K38">
+        <v>-7200</v>
+      </c>
+      <c r="L38">
+        <v>38.203904999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45170</v>
+      </c>
+      <c r="E39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39">
+        <v>-14.02</v>
+      </c>
+      <c r="J39">
+        <v>550</v>
+      </c>
+      <c r="K39">
+        <v>-7710.9999999999982</v>
+      </c>
+      <c r="L39">
+        <v>89.409441200000018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45170</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40">
+        <v>-14.01000000000001</v>
+      </c>
+      <c r="J40">
+        <v>560</v>
+      </c>
+      <c r="K40">
+        <v>-7845.6000000000031</v>
+      </c>
+      <c r="L40">
+        <v>85.645977600000009</v>
       </c>
     </row>
   </sheetData>
@@ -1799,11 +2412,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1815,7 +2426,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -1836,10 +2447,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>20</v>
@@ -1856,13 +2467,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -1871,10 +2482,10 @@
         <v>45142</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H2">
         <v>210</v>
@@ -1894,13 +2505,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <v>19600</v>
@@ -1909,10 +2520,10 @@
         <v>45145</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H3">
         <v>171.25</v>
@@ -1932,13 +2543,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>19600</v>
@@ -1947,10 +2558,10 @@
         <v>45146</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H4">
         <v>154.85</v>
@@ -1979,13 +2590,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D5">
         <v>19500</v>
@@ -1994,10 +2605,10 @@
         <v>45147</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="H5">
         <v>128.80000000000001</v>
@@ -2026,13 +2637,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D6">
         <v>19600</v>
@@ -2041,10 +2652,10 @@
         <v>45148</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H6">
         <v>106.95</v>
@@ -2073,13 +2684,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>19500</v>
@@ -2088,10 +2699,10 @@
         <v>45149</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H7">
         <v>191.05</v>
@@ -2120,13 +2731,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D8">
         <v>19300</v>
@@ -2135,10 +2746,10 @@
         <v>45152</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H8">
         <v>173.5</v>
@@ -2167,13 +2778,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>19300</v>
@@ -2182,7 +2793,7 @@
         <v>45154</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
         <v>60</v>
@@ -2214,13 +2825,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>19400</v>
@@ -2229,10 +2840,10 @@
         <v>45155</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H10">
         <v>92.3</v>
@@ -2261,13 +2872,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D11">
         <v>19300</v>
@@ -2276,10 +2887,10 @@
         <v>45156</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H11">
         <v>189.35</v>
@@ -2308,13 +2919,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <v>19300</v>
@@ -2323,10 +2934,10 @@
         <v>45159</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H12">
         <v>165.15</v>
@@ -2355,13 +2966,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D13">
         <v>19400</v>
@@ -2370,10 +2981,10 @@
         <v>45160</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H13">
         <v>130.94999999999999</v>
@@ -2402,25 +3013,25 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D14">
         <v>19400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>45161</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H14">
         <v>95.05</v>
@@ -2445,6 +3056,288 @@
       </c>
       <c r="O14">
         <v>154.09979659999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>19500</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45162</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H15">
+        <v>82.3</v>
+      </c>
+      <c r="I15">
+        <v>103.25</v>
+      </c>
+      <c r="J15">
+        <v>1.95</v>
+      </c>
+      <c r="K15">
+        <v>0.3</v>
+      </c>
+      <c r="L15">
+        <v>-22.6</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>-2260</v>
+      </c>
+      <c r="O15">
+        <v>157.1229439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>19300</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45163</v>
+      </c>
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16">
+        <v>197.1</v>
+      </c>
+      <c r="I16">
+        <v>180.55</v>
+      </c>
+      <c r="J16">
+        <v>11.25</v>
+      </c>
+      <c r="K16">
+        <v>8.85</v>
+      </c>
+      <c r="L16">
+        <v>14.150000000000009</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>1415.0000000000009</v>
+      </c>
+      <c r="O16">
+        <v>165.2026492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17">
+        <v>19300</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17">
+        <v>183.8</v>
+      </c>
+      <c r="I17">
+        <v>145.9</v>
+      </c>
+      <c r="J17">
+        <v>8.5</v>
+      </c>
+      <c r="K17">
+        <v>4.75</v>
+      </c>
+      <c r="L17">
+        <v>34.150000000000013</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>3415</v>
+      </c>
+      <c r="O17">
+        <v>160.3737017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>19400</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45168</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18">
+        <v>91.9</v>
+      </c>
+      <c r="I18">
+        <v>87.5</v>
+      </c>
+      <c r="J18">
+        <v>2.75</v>
+      </c>
+      <c r="K18">
+        <v>1.65</v>
+      </c>
+      <c r="L18">
+        <v>3.300000000000006</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>330.00000000000063</v>
+      </c>
+      <c r="O18">
+        <v>152.7096947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <v>19400</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45169</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19">
+        <v>83.7</v>
+      </c>
+      <c r="I19">
+        <v>112.45</v>
+      </c>
+      <c r="J19">
+        <v>1.4</v>
+      </c>
+      <c r="K19">
+        <v>1.8</v>
+      </c>
+      <c r="L19">
+        <v>-28.349999999999991</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>-2834.9999999999991</v>
+      </c>
+      <c r="O19">
+        <v>159.4813565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <v>19300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45170</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20">
+        <v>193.5</v>
+      </c>
+      <c r="I20">
+        <v>224.7</v>
+      </c>
+      <c r="J20">
+        <v>9.75</v>
+      </c>
+      <c r="K20">
+        <v>8.1</v>
+      </c>
+      <c r="L20">
+        <v>-32.849999999999987</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>-3284.9999999999991</v>
+      </c>
+      <c r="O20">
+        <v>174.51107039999999</v>
       </c>
     </row>
   </sheetData>
@@ -2454,35 +3347,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
@@ -2493,60 +3384,118 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>19400.95</v>
+        <v>19320</v>
       </c>
       <c r="D2">
-        <v>19410.8</v>
+        <v>19341</v>
       </c>
       <c r="E2">
-        <v>12.3</v>
+        <v>20.05</v>
       </c>
       <c r="F2">
-        <v>8.4</v>
+        <v>13.15</v>
       </c>
       <c r="G2">
-        <v>5.9499999999985436</v>
+        <v>14.1</v>
       </c>
       <c r="H2">
-        <v>594.99999999985448</v>
+        <v>1410</v>
       </c>
       <c r="I2">
-        <v>570.02985224000008</v>
+        <v>569.5919725</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3">
-        <v>19382</v>
+        <v>19338.95</v>
       </c>
       <c r="D3">
-        <v>19389.849999999999</v>
+        <v>19405</v>
       </c>
       <c r="E3">
-        <v>18.2</v>
+        <v>13.95</v>
       </c>
       <c r="F3">
-        <v>12.3</v>
+        <v>4.45</v>
       </c>
       <c r="G3">
-        <v>1.949999999998546</v>
+        <v>56.549999999999272</v>
       </c>
       <c r="H3">
-        <v>194.99999999985459</v>
+        <v>5654.9999999999272</v>
       </c>
       <c r="I3">
-        <v>570.20677032999993</v>
+        <v>569.45203910000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>19335.099999999999</v>
+      </c>
+      <c r="D4">
+        <v>19357.3</v>
+      </c>
+      <c r="E4">
+        <v>6.35</v>
+      </c>
+      <c r="F4">
+        <v>2.15</v>
+      </c>
+      <c r="G4">
+        <v>18.000000000000728</v>
+      </c>
+      <c r="H4">
+        <v>1800.000000000073</v>
+      </c>
+      <c r="I4">
+        <v>568.46166143999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>19424.349999999999</v>
+      </c>
+      <c r="D5">
+        <v>19403.599999999999</v>
+      </c>
+      <c r="E5">
+        <v>86.17</v>
+      </c>
+      <c r="F5">
+        <v>65.62</v>
+      </c>
+      <c r="G5">
+        <v>0.20000000000000279</v>
+      </c>
+      <c r="H5">
+        <v>20.000000000000281</v>
+      </c>
+      <c r="I5">
+        <v>577.05426684000008</v>
       </c>
     </row>
   </sheetData>
